--- a/results/stackedBarChart.xlsx
+++ b/results/stackedBarChart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1440" windowWidth="25600" windowHeight="20080" tabRatio="500"/>
+    <workbookView xWindow="3500" yWindow="1020" windowWidth="25600" windowHeight="20080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,6 +137,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hybrid SpMV Computation and Overhead</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -670,9 +689,50 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> MPI Processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42589838340967"/>
+              <c:y val="0.935499022598973"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="-2022572504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -688,10 +748,46 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time in seconds </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00832466181061394"/>
+              <c:y val="0.308647532747502"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="-2022180008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -701,6 +797,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -718,16 +824,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1074,7 +1180,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D41"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/results/stackedBarChart.xlsx
+++ b/results/stackedBarChart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="1020" windowWidth="25600" windowHeight="20080" tabRatio="500"/>
+    <workbookView xWindow="-31360" yWindow="0" windowWidth="28080" windowHeight="20080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>ParabolicFem</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Reduction</t>
+  </si>
+  <si>
+    <t>inside</t>
   </si>
 </sst>
 </file>
@@ -144,10 +147,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="3600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="3600"/>
               <a:t>Hybrid SpMV Computation and Overhead</a:t>
             </a:r>
           </a:p>
@@ -679,11 +682,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2022180008"/>
-        <c:axId val="-2022572504"/>
+        <c:axId val="-2133200408"/>
+        <c:axId val="2063726200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2022180008"/>
+        <c:axId val="-2133200408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,17 +699,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr sz="2400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Total</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
                   <a:t> MPI Processes</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
+                <a:endParaRPr lang="en-US" sz="2400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -728,12 +731,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200"/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2022572504"/>
+        <c:crossAx val="2063726200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -741,7 +744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2022572504"/>
+        <c:axId val="2063726200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,10 +758,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Time in seconds </a:t>
                 </a:r>
               </a:p>
@@ -768,8 +771,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00832466181061394"/>
-              <c:y val="0.308647532747502"/>
+              <c:x val="0.00202968333994222"/>
+              <c:y val="0.312131882904881"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -783,18 +786,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200"/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2022180008"/>
+        <c:crossAx val="-2133200408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
@@ -802,7 +805,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400"/>
+            <a:defRPr sz="2000"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -832,8 +835,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1177,15 +1180,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="C1" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1242,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>9.5799999999999987E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>7.0500000000000011E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>1.6019999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>6.020000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1306,7 +1312,7 @@
         <v>1.8497E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>8.7469999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -1330,7 +1336,7 @@
         <v>3.2420000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>3</v>
       </c>
